--- a/output/fit_clients/fit_round_178.xlsx
+++ b/output/fit_clients/fit_round_178.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2290307343.613791</v>
+        <v>1969719734.209127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09111767832982381</v>
+        <v>0.07802579784493312</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0323859890910206</v>
+        <v>0.02896430722388968</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1145153706.493842</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1950201771.187158</v>
+        <v>2433874851.987528</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1768757740084129</v>
+        <v>0.1840783789330441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0433461402591785</v>
+        <v>0.04876681176696389</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>975100917.9137061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3748313307.304318</v>
+        <v>4843651738.796034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.146420929023444</v>
+        <v>0.1059125241180156</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02487016515021163</v>
+        <v>0.03012358913797356</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>64</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1874156649.982462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3495125341.819125</v>
+        <v>2888327776.238119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07699628279624648</v>
+        <v>0.07273281743862416</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03564268476206061</v>
+        <v>0.04731766597911802</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1747562707.984102</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2692070107.402366</v>
+        <v>2485289823.635925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1068165705303267</v>
+        <v>0.1061853000343002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03663911480536856</v>
+        <v>0.03788460497998945</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1346035008.363389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3058334359.711575</v>
+        <v>2255451999.619848</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06443224980564415</v>
+        <v>0.07720033521548891</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03651379487747972</v>
+        <v>0.03723981273498629</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1529167139.082004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3916361423.010756</v>
+        <v>2573655088.473404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1412281238949192</v>
+        <v>0.1662673338138242</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02876719158036052</v>
+        <v>0.0206346703489553</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>57</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1958180862.655727</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1971127434.196866</v>
+        <v>2288835860.133094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.167975935321675</v>
+        <v>0.1976739341349746</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02455396143025066</v>
+        <v>0.02294810013175926</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>985563747.694275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4160276216.938443</v>
+        <v>5022885025.359859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1732353793554747</v>
+        <v>0.1907152545457371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04470204855128343</v>
+        <v>0.03910328823683713</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2080138142.76362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3652595714.75167</v>
+        <v>4038470219.464342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1512289628584471</v>
+        <v>0.1775360155821861</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04312096634717013</v>
+        <v>0.04732050915229314</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>73</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1826297845.842071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3232749505.483225</v>
+        <v>3012942602.583174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1806062954597408</v>
+        <v>0.1754532868474806</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03483971323708156</v>
+        <v>0.03975242150861612</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>63</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1616374792.053672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4688307183.519933</v>
+        <v>3316826878.763487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1015204057958932</v>
+        <v>0.09868810568349672</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01978233275774079</v>
+        <v>0.02178260583784345</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>60</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2344153611.700311</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3236222411.704334</v>
+        <v>3422765194.627142</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1213492756828698</v>
+        <v>0.149197258427969</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0408634613581094</v>
+        <v>0.03125315731555034</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1618111223.157226</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1273569095.807137</v>
+        <v>1780735886.823977</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06653602823024508</v>
+        <v>0.08399651919540416</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04127226708775799</v>
+        <v>0.04781560436713855</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>636784582.0386676</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2131165212.616314</v>
+        <v>2169759865.69906</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07576775822318889</v>
+        <v>0.07902060251220362</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04477106786335894</v>
+        <v>0.03913707153436845</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1065582670.051037</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3232702566.024987</v>
+        <v>5078384939.477221</v>
       </c>
       <c r="F17" t="n">
-        <v>0.144837569116941</v>
+        <v>0.142858493747036</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04648870984203537</v>
+        <v>0.03652325974684927</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1616351355.520649</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3699565691.691599</v>
+        <v>3913249251.422964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1628685868850732</v>
+        <v>0.1187515179394619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03389003863779178</v>
+        <v>0.03434275448679472</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>58</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1849782825.393022</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1281517948.431994</v>
+        <v>1121506890.482435</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1799923138310135</v>
+        <v>0.1186242064286229</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02387625086769093</v>
+        <v>0.02302855012629367</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>640759071.9540658</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2011126610.16628</v>
+        <v>2492971215.940249</v>
       </c>
       <c r="F20" t="n">
-        <v>0.128643803606089</v>
+        <v>0.1500624174296592</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03066249143486311</v>
+        <v>0.02578334691431212</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1005563330.212348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1953219346.556964</v>
+        <v>1699162717.469928</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07244218224331014</v>
+        <v>0.09352083809421573</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03850040888379485</v>
+        <v>0.04043485504238731</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>976609713.6985966</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2958962714.618687</v>
+        <v>3972228410.611712</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1190645708060925</v>
+        <v>0.1288948640369312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03646130616401878</v>
+        <v>0.05060692248837805</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1479481421.274155</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1547492309.717823</v>
+        <v>1292593736.032689</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625050193339848</v>
+        <v>0.1451980218907643</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03320596455917804</v>
+        <v>0.054263046155986</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>773746132.7629032</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2791768730.603219</v>
+        <v>2833147656.07514</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1208262958104153</v>
+        <v>0.09717759087376715</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03341654493617532</v>
+        <v>0.02813141460521279</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>52</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1395884414.528916</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>919003226.7140578</v>
+        <v>1050584108.488372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08370792149964312</v>
+        <v>0.09782591060775636</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02936351622238227</v>
+        <v>0.02474206623338388</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>459501695.9575821</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1016279000.7414</v>
+        <v>1107516584.120522</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1181915465318751</v>
+        <v>0.08270135562010418</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03723999193064109</v>
+        <v>0.02381527328830971</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>508139476.3760728</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3404271772.945462</v>
+        <v>4301367021.743033</v>
       </c>
       <c r="F27" t="n">
-        <v>0.106613724674657</v>
+        <v>0.1448551619105987</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02125104592470253</v>
+        <v>0.01712578156425477</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>41</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1702135926.163559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3153694569.85245</v>
+        <v>3166515408.749282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0934094993448303</v>
+        <v>0.1388808371921716</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04595480506992959</v>
+        <v>0.03640785098429716</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>57</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1576847309.453814</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4851338862.54872</v>
+        <v>4884129257.903034</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1191346288129611</v>
+        <v>0.1137718541807129</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03929039262845705</v>
+        <v>0.03635218877227468</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>80</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2425669389.153399</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1792930045.951138</v>
+        <v>1817332288.922179</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1058638703243485</v>
+        <v>0.1167553586695678</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0383695495612031</v>
+        <v>0.03227871258949045</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>896465036.8013771</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1287079997.695832</v>
+        <v>929113568.7844141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1002163270642219</v>
+        <v>0.09186379485759426</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04795101209533861</v>
+        <v>0.03934638808758965</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>643539929.7883117</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1572550208.035331</v>
+        <v>1471598373.73109</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09840767433229379</v>
+        <v>0.1013256947716864</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02403232257809381</v>
+        <v>0.02516987571772972</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>786275187.3662149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1933752472.250016</v>
+        <v>2305715080.0523</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1744275331123962</v>
+        <v>0.1785824025678884</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0519464129953766</v>
+        <v>0.04797305037138232</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>54</v>
-      </c>
-      <c r="J33" t="n">
-        <v>966876322.532878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1465919859.221521</v>
+        <v>1276108079.239493</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08975132903236654</v>
+        <v>0.09846842445754313</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02454380883598765</v>
+        <v>0.01757461088055657</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>732959890.9946252</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1177385631.127628</v>
+        <v>1336576020.8223</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1020499298171007</v>
+        <v>0.1171565307072757</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02975764721675011</v>
+        <v>0.02870481813109025</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>588692795.2247199</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2351763654.477407</v>
+        <v>3040240728.613915</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1479612836869583</v>
+        <v>0.157304898820788</v>
       </c>
       <c r="G36" t="n">
-        <v>0.022673110943696</v>
+        <v>0.02817628697903932</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1175881861.078169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1961189181.713383</v>
+        <v>1827571080.92711</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1007598045549009</v>
+        <v>0.06918841437496238</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03292402707931714</v>
+        <v>0.0305573067794626</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50</v>
-      </c>
-      <c r="J37" t="n">
-        <v>980594612.7627171</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1782042281.936347</v>
+        <v>1467758125.309967</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1071519730869488</v>
+        <v>0.1012643008112309</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02741088068610543</v>
+        <v>0.03881041278119541</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>891021150.3553134</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1946793214.843131</v>
+        <v>1538315769.814095</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1671641047674871</v>
+        <v>0.1870529998370842</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02041418372806863</v>
+        <v>0.02480563596128543</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>973396610.0042579</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1140264618.76144</v>
+        <v>1223948649.743148</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1232386482772984</v>
+        <v>0.1328871392700308</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03717875254346537</v>
+        <v>0.05060039560862244</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>570132365.6108199</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2532646352.255223</v>
+        <v>2431787368.225079</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1579711552264896</v>
+        <v>0.1128933583653729</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03971447515403554</v>
+        <v>0.0320177912679424</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1266323198.153048</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4180643326.236417</v>
+        <v>2729579383.277154</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1249733823799374</v>
+        <v>0.09722894716586711</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0337666977122162</v>
+        <v>0.04278469887957388</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2090321704.80617</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2189872405.960881</v>
+        <v>2100415531.456384</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1339455153055095</v>
+        <v>0.1962152921785492</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02082183011404726</v>
+        <v>0.01810570301949447</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>62</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1094936282.799001</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1543769377.361878</v>
+        <v>1872400861.514567</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08390961835893879</v>
+        <v>0.06494195841433277</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03355886482160287</v>
+        <v>0.02483564650730959</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>771884703.952418</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2468148329.48105</v>
+        <v>2537116771.318692</v>
       </c>
       <c r="F45" t="n">
-        <v>0.140570501743732</v>
+        <v>0.1406431507696262</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05578241198804414</v>
+        <v>0.04992672438752126</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1234074202.757716</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4785939974.672834</v>
+        <v>5350964172.602513</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1600005448573679</v>
+        <v>0.1582080541609417</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05612745537331468</v>
+        <v>0.05091711749997817</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>63</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2392970001.875515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3470078967.047058</v>
+        <v>3279477987.17878</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1753410130680357</v>
+        <v>0.1846250700936091</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0563470236953094</v>
+        <v>0.03671564554875158</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>47</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1735039452.588859</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3149049055.232654</v>
+        <v>3319725644.227164</v>
       </c>
       <c r="F48" t="n">
-        <v>0.106607218457758</v>
+        <v>0.09071477950382699</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03889782768435622</v>
+        <v>0.03116247965083581</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>60</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1574524611.399931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1840586544.34292</v>
+        <v>1737098009.455894</v>
       </c>
       <c r="F49" t="n">
-        <v>0.172181145318321</v>
+        <v>0.1714465645853123</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03511545213110903</v>
+        <v>0.03181281278650909</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>920293251.2030556</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4040896526.83133</v>
+        <v>2715898840.207126</v>
       </c>
       <c r="F50" t="n">
-        <v>0.128744300501982</v>
+        <v>0.1464693003558493</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04837865917272905</v>
+        <v>0.04297697193077787</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>60</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2020448249.184543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1025703895.154564</v>
+        <v>1518269470.004701</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1854750259835048</v>
+        <v>0.135198458717781</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05282353908680818</v>
+        <v>0.03746389730286369</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>512852027.3364016</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4546570725.54411</v>
+        <v>3206923627.542241</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08472225212578757</v>
+        <v>0.1205922676112347</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05205397474673116</v>
+        <v>0.05477266210643901</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>73</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2273285387.053823</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2336267134.992416</v>
+        <v>2659155350.135815</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1586412427639798</v>
+        <v>0.1359292835817967</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02968329074527772</v>
+        <v>0.03438326004564923</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>51</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1168133645.692717</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3580023970.321263</v>
+        <v>4975951922.731663</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1210550127244554</v>
+        <v>0.1486431757638389</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04217580410613352</v>
+        <v>0.03409417076335979</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1790012016.2368</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3045342476.318313</v>
+        <v>4049470319.930218</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1878710226706031</v>
+        <v>0.1695004599083137</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03132741811804009</v>
+        <v>0.02983382342389185</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>48</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1522671170.907131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1769180356.871818</v>
+        <v>1745124215.051374</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1231295198485798</v>
+        <v>0.1558094943708436</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0397250343731112</v>
+        <v>0.04232606535332738</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>884590180.8021299</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4101403338.185112</v>
+        <v>4052777471.246739</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1202904154607298</v>
+        <v>0.1415746362651237</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0174311997226722</v>
+        <v>0.0212903054611126</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>57</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2050701765.947984</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1899353369.573692</v>
+        <v>1476027247.364056</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1674513910204923</v>
+        <v>0.1458072685631875</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02677468499786624</v>
+        <v>0.03190867605565675</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>949676679.467301</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3788932553.932935</v>
+        <v>3984412792.267241</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09934754637106689</v>
+        <v>0.0850168209080214</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0367568928256807</v>
+        <v>0.04678610296965637</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1894466263.071481</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2883063327.64642</v>
+        <v>2605239750.718337</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1622843293065047</v>
+        <v>0.1389921607212611</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02672377822817699</v>
+        <v>0.02455692679102011</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>59</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1441531721.873398</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3274868107.935388</v>
+        <v>2307470075.948429</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1455997454087517</v>
+        <v>0.1086374146745815</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03110893790637466</v>
+        <v>0.02105600347137565</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>61</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1637434008.488875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1996207573.026788</v>
+        <v>1856587066.397809</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1816684365599156</v>
+        <v>0.1934282976396744</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04166357438656488</v>
+        <v>0.04684429989005867</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>998103844.0043741</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5170205201.957405</v>
+        <v>4675437434.172389</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0866920337997292</v>
+        <v>0.08594607392937757</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04024711826431607</v>
+        <v>0.03623811261731633</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2585102611.130137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3759599910.928321</v>
+        <v>5188547469.850248</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1807382245213542</v>
+        <v>0.1553345583492103</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02401950481012442</v>
+        <v>0.03508157881005787</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>55</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1879799974.392092</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5267160081.298028</v>
+        <v>4731754366.979686</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1232038849977018</v>
+        <v>0.1641152474931871</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02256473815421945</v>
+        <v>0.02342309225050065</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>64</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2633579983.596898</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5325381436.68604</v>
+        <v>4210088738.513295</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1016472913003718</v>
+        <v>0.1437085788354672</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03235418834656266</v>
+        <v>0.04364699016851613</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>52</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2662690762.896799</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2242701232.094732</v>
+        <v>3072697450.39976</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1022184758997891</v>
+        <v>0.08729060508768637</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03708311441059343</v>
+        <v>0.03331693619609392</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1121350698.429159</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4061990348.868426</v>
+        <v>5435496537.292694</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1207452130855525</v>
+        <v>0.1319878475360123</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04506678600494202</v>
+        <v>0.05113402238521902</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2030995173.948048</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2068962591.153308</v>
+        <v>2403209377.618107</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1358236925268986</v>
+        <v>0.1208431566648769</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04502578763636479</v>
+        <v>0.05144966078499565</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1034481309.420437</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2818776528.466796</v>
+        <v>3485372683.449523</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07361360677961903</v>
+        <v>0.08900113320360389</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03840608593867179</v>
+        <v>0.03705119842748175</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>51</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1409388229.382893</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4578167004.215523</v>
+        <v>5002985162.383287</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1763217289049665</v>
+        <v>0.1828464405730512</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03191081861843814</v>
+        <v>0.02828401322000599</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>65</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2289083576.295208</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1561454003.640715</v>
+        <v>1756638255.47118</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09496418654326018</v>
+        <v>0.08428571126703989</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03528207715519004</v>
+        <v>0.04482193569558761</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>780727018.8882283</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3427897162.244576</v>
+        <v>3521161896.386054</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07839819827777302</v>
+        <v>0.07085669967720838</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04658012956298149</v>
+        <v>0.03657916727648053</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>68</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1713948537.877364</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2547677179.614313</v>
+        <v>2630074600.832473</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1822177762213933</v>
+        <v>0.185059430665083</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02635176280230966</v>
+        <v>0.03298646608727134</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>60</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1273838694.245612</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1699037135.949251</v>
+        <v>1546704982.882838</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1128838704263006</v>
+        <v>0.1631707487853338</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02382347074736069</v>
+        <v>0.03455824439820828</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>849518560.4040842</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5244830979.858793</v>
+        <v>4806173791.416805</v>
       </c>
       <c r="F76" t="n">
-        <v>0.104244569160691</v>
+        <v>0.1013461508727647</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03283081652547192</v>
+        <v>0.02188954217065858</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2622415526.841683</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2009198182.467818</v>
+        <v>2290694276.25399</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1652698024369459</v>
+        <v>0.1608805598397727</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02033521874853328</v>
+        <v>0.02438908347952768</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1004599154.117488</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3950640325.611945</v>
+        <v>3880846439.043924</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1204656431058078</v>
+        <v>0.08309939014270014</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04767588310814613</v>
+        <v>0.05652805622974802</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>62</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1975320132.012989</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1201377439.859223</v>
+        <v>1462645407.844157</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1379950489249336</v>
+        <v>0.1202345200805127</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04011703321259194</v>
+        <v>0.03223748092558035</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>600688701.8798445</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4651540510.83252</v>
+        <v>5480527047.304926</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08651332458500027</v>
+        <v>0.09306789506613813</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03307827596713848</v>
+        <v>0.02554175390105849</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>37</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2325770287.263486</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3450278328.579978</v>
+        <v>4080232616.050228</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1170021782374042</v>
+        <v>0.09824408621963644</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02300774818037792</v>
+        <v>0.03010386086474942</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1725139107.072396</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4593316938.837008</v>
+        <v>5187727244.277543</v>
       </c>
       <c r="F82" t="n">
-        <v>0.159301110654831</v>
+        <v>0.1630403783128425</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02029622493435054</v>
+        <v>0.02433651911373629</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2296658476.008477</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2270544909.373811</v>
+        <v>1749077644.904637</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1107591623879205</v>
+        <v>0.1043057727589625</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03178720513404239</v>
+        <v>0.02954882691110916</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1135272473.680327</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1610730592.523566</v>
+        <v>1811602884.199858</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1195388965728683</v>
+        <v>0.104181458323391</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03722870660753295</v>
+        <v>0.03696737348973237</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>805365358.2908053</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3214807283.271924</v>
+        <v>3184700660.378591</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1182278458323878</v>
+        <v>0.1204980434561623</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03786593641485527</v>
+        <v>0.04642021403246024</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>67</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1607403725.475199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1875699777.732785</v>
+        <v>2765699852.765973</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1160381393231411</v>
+        <v>0.1344066854803417</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02009756719256402</v>
+        <v>0.01798261955762288</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>937849899.1530342</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>951779201.0081912</v>
+        <v>1402312253.820326</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1342280844405954</v>
+        <v>0.1512982378847866</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03326575858331825</v>
+        <v>0.0398251912912608</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>475889592.4440024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3019403206.868341</v>
+        <v>2692446746.465632</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1139284859819876</v>
+        <v>0.1076843570705616</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0339250298264599</v>
+        <v>0.02582432338836343</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>70</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1509701635.764396</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2564411224.129094</v>
+        <v>3313642787.768929</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1330794939952242</v>
+        <v>0.09695635125964766</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02719783143715986</v>
+        <v>0.03905042091724922</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1282205682.068205</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1931197813.819482</v>
+        <v>1821505561.541749</v>
       </c>
       <c r="F90" t="n">
-        <v>0.114964758790953</v>
+        <v>0.1361951957572692</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04849806881581945</v>
+        <v>0.04481636957179274</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>965598964.5654643</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1874787874.723463</v>
+        <v>1571855818.409517</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1326873543201468</v>
+        <v>0.1342482337309447</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05671145563344891</v>
+        <v>0.05686306195185331</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>937393926.2782943</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2879534093.224549</v>
+        <v>2221560848.917683</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08646445144377131</v>
+        <v>0.09932894282031844</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02875356998421746</v>
+        <v>0.03766437711752289</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>43</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1439767059.199166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3443459604.186536</v>
+        <v>3432167938.759919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1286389782417048</v>
+        <v>0.09592169750942098</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04273870810188133</v>
+        <v>0.04225382546674022</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1721729838.680431</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2096306533.403787</v>
+        <v>1571470722.005288</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1102156272047834</v>
+        <v>0.1584284449286985</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03282017136614203</v>
+        <v>0.03241595892000192</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1048153277.547658</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2414935222.255269</v>
+        <v>2634690665.558889</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1315203417041572</v>
+        <v>0.1287365348880055</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03341528813978671</v>
+        <v>0.04702173230890855</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1207467653.372923</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2202403122.980705</v>
+        <v>2355762041.523193</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1028151372801969</v>
+        <v>0.1314382994627497</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03690476546913787</v>
+        <v>0.04347726778710403</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1101201526.824614</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4926202805.872436</v>
+        <v>4743210709.532794</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1591033942754635</v>
+        <v>0.1758697720476137</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02859651839637553</v>
+        <v>0.02567710798632818</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2463101533.767116</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3563765143.452341</v>
+        <v>2875641380.039845</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1160592829009161</v>
+        <v>0.09892858620963652</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02477622755751342</v>
+        <v>0.03055340139060043</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>47</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1781882594.643504</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2548013003.420364</v>
+        <v>2837371517.630789</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1484119379294543</v>
+        <v>0.09137155097826993</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02155713404150474</v>
+        <v>0.03155170879265734</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>56</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1274006454.926229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4096599962.515718</v>
+        <v>4232506820.471111</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1081782537556587</v>
+        <v>0.1746656247121795</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02719215864639844</v>
+        <v>0.0281949240114195</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2048300059.620358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3376334961.820897</v>
+        <v>2467996115.591834</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1520902367788835</v>
+        <v>0.1396722437508563</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03923944808655144</v>
+        <v>0.05030664043897554</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>73</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1688167619.678386</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_178.xlsx
+++ b/output/fit_clients/fit_round_178.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1969719734.209127</v>
+        <v>2280751512.519202</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07802579784493312</v>
+        <v>0.07382742906413303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02896430722388968</v>
+        <v>0.03836970218766644</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2433874851.987528</v>
+        <v>1965687547.126325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1840783789330441</v>
+        <v>0.1693222010952746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04876681176696389</v>
+        <v>0.03590413110415066</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4843651738.796034</v>
+        <v>4563823375.953453</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1059125241180156</v>
+        <v>0.1262589325853993</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03012358913797356</v>
+        <v>0.02578262760397529</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2888327776.238119</v>
+        <v>2851200783.668167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07273281743862416</v>
+        <v>0.09830889690774818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04731766597911802</v>
+        <v>0.03446792348615908</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2485289823.635925</v>
+        <v>2582324185.038816</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1061853000343002</v>
+        <v>0.1353005490735834</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03788460497998945</v>
+        <v>0.0568094554470701</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2255451999.619848</v>
+        <v>2728848825.406688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07720033521548891</v>
+        <v>0.09151736546128499</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03723981273498629</v>
+        <v>0.04318636071343752</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2573655088.473404</v>
+        <v>3584024655.588786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1662673338138242</v>
+        <v>0.1425433478653002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0206346703489553</v>
+        <v>0.03135829025384808</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2288835860.133094</v>
+        <v>1952513899.732389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1976739341349746</v>
+        <v>0.1554419977897378</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02294810013175926</v>
+        <v>0.03457030049622493</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5022885025.359859</v>
+        <v>5350375795.500453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1907152545457371</v>
+        <v>0.1838617260314868</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03910328823683713</v>
+        <v>0.0360282518226264</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4038470219.464342</v>
+        <v>3639355522.022119</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1775360155821861</v>
+        <v>0.1856501841709363</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04732050915229314</v>
+        <v>0.03286915652770845</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3012942602.583174</v>
+        <v>3315095272.286728</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1754532868474806</v>
+        <v>0.1589849515860565</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03975242150861612</v>
+        <v>0.03909665675251937</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3316826878.763487</v>
+        <v>5159247709.76428</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09868810568349672</v>
+        <v>0.06460464174660947</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02178260583784345</v>
+        <v>0.02914032645454475</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3422765194.627142</v>
+        <v>3246077158.662771</v>
       </c>
       <c r="F14" t="n">
-        <v>0.149197258427969</v>
+        <v>0.1229093821067829</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03125315731555034</v>
+        <v>0.03642901210517221</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1780735886.823977</v>
+        <v>1277672802.803016</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08399651919540416</v>
+        <v>0.1029044923863613</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04781560436713855</v>
+        <v>0.04825303803487922</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2169759865.69906</v>
+        <v>2459603753.590529</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07902060251220362</v>
+        <v>0.09798321292520179</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03913707153436845</v>
+        <v>0.03495317273993205</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5078384939.477221</v>
+        <v>4752553642.782314</v>
       </c>
       <c r="F17" t="n">
-        <v>0.142858493747036</v>
+        <v>0.1413857602813949</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03652325974684927</v>
+        <v>0.04605785716866403</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3913249251.422964</v>
+        <v>2571789343.306538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1187515179394619</v>
+        <v>0.1661414869879843</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03434275448679472</v>
+        <v>0.02522586976318746</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1121506890.482435</v>
+        <v>1092005913.512497</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1186242064286229</v>
+        <v>0.1871874484699644</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02302855012629367</v>
+        <v>0.01885885138858488</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2492971215.940249</v>
+        <v>2258839575.078332</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1500624174296592</v>
+        <v>0.1229107822523351</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02578334691431212</v>
+        <v>0.030463415638884</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1699162717.469928</v>
+        <v>2225723606.951339</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09352083809421573</v>
+        <v>0.06882943842632519</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04043485504238731</v>
+        <v>0.03883507511160144</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3972228410.611712</v>
+        <v>2702400728.660247</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1288948640369312</v>
+        <v>0.09152886501737954</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05060692248837805</v>
+        <v>0.03717873851738464</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1292593736.032689</v>
+        <v>985462188.6210054</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1451980218907643</v>
+        <v>0.1305679145307415</v>
       </c>
       <c r="G23" t="n">
-        <v>0.054263046155986</v>
+        <v>0.0354962977296617</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2833147656.07514</v>
+        <v>3293833771.738503</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09717759087376715</v>
+        <v>0.1073628404864693</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02813141460521279</v>
+        <v>0.03274804444928871</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1050584108.488372</v>
+        <v>1213308840.26632</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09782591060775636</v>
+        <v>0.09780364190313648</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02474206623338388</v>
+        <v>0.02077197842187167</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1107516584.120522</v>
+        <v>987628433.115643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08270135562010418</v>
+        <v>0.08963065856433135</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02381527328830971</v>
+        <v>0.03174963896122353</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4301367021.743033</v>
+        <v>4247158135.574932</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1448551619105987</v>
+        <v>0.1127808695314439</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01712578156425477</v>
+        <v>0.01677648255577214</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3166515408.749282</v>
+        <v>2600594263.040477</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1388808371921716</v>
+        <v>0.09600893857874866</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03640785098429716</v>
+        <v>0.04825510442197865</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4884129257.903034</v>
+        <v>4370079376.734318</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1137718541807129</v>
+        <v>0.1450050387809874</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03635218877227468</v>
+        <v>0.02955570621585246</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1817332288.922179</v>
+        <v>1559918891.185485</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1167553586695678</v>
+        <v>0.1296023270290426</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03227871258949045</v>
+        <v>0.04014682837277988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>929113568.7844141</v>
+        <v>903856131.0981646</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09186379485759426</v>
+        <v>0.106055601035426</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03934638808758965</v>
+        <v>0.032163602627099</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1471598373.73109</v>
+        <v>1205234160.220099</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1013256947716864</v>
+        <v>0.07964976722733851</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02516987571772972</v>
+        <v>0.03755561999784722</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2305715080.0523</v>
+        <v>1938406101.768076</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1785824025678884</v>
+        <v>0.1535271961192969</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04797305037138232</v>
+        <v>0.03938944701910551</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1276108079.239493</v>
+        <v>951658343.2890942</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09846842445754313</v>
+        <v>0.1095216465574736</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01757461088055657</v>
+        <v>0.01883420309504381</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1336576020.8223</v>
+        <v>1024532724.030022</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1171565307072757</v>
+        <v>0.1179609206977799</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02870481813109025</v>
+        <v>0.0354349947017539</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3040240728.613915</v>
+        <v>2387727422.282237</v>
       </c>
       <c r="F36" t="n">
-        <v>0.157304898820788</v>
+        <v>0.1214657326821113</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02817628697903932</v>
+        <v>0.02239896435198464</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1827571080.92711</v>
+        <v>1780654630.538169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06918841437496238</v>
+        <v>0.1067513866946067</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0305573067794626</v>
+        <v>0.02774245039290906</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1467758125.309967</v>
+        <v>1601535365.238685</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1012643008112309</v>
+        <v>0.07537900549735303</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03881041278119541</v>
+        <v>0.02713883557745194</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1538315769.814095</v>
+        <v>1968077083.347359</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1870529998370842</v>
+        <v>0.1833016676802221</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02480563596128543</v>
+        <v>0.03203691839645967</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1223948649.743148</v>
+        <v>1107781970.292194</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1328871392700308</v>
+        <v>0.1070862530980058</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05060039560862244</v>
+        <v>0.03629849969961909</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2431787368.225079</v>
+        <v>2256739321.308713</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1128933583653729</v>
+        <v>0.1361988863689111</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0320177912679424</v>
+        <v>0.04605317017953415</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2729579383.277154</v>
+        <v>2934073008.722918</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09722894716586711</v>
+        <v>0.07922333165641807</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04278469887957388</v>
+        <v>0.03041679318412285</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2100415531.456384</v>
+        <v>2902443034.713708</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1962152921785492</v>
+        <v>0.1855630882586944</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01810570301949447</v>
+        <v>0.02296316003926115</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1872400861.514567</v>
+        <v>2001891738.031965</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06494195841433277</v>
+        <v>0.09569949490604138</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02483564650730959</v>
+        <v>0.02286983394719586</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2537116771.318692</v>
+        <v>2064670757.608538</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1406431507696262</v>
+        <v>0.1463899026976001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04992672438752126</v>
+        <v>0.0550190513663411</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5350964172.602513</v>
+        <v>3579605225.753412</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1582080541609417</v>
+        <v>0.1442573065410687</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05091711749997817</v>
+        <v>0.04438404973261033</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3279477987.17878</v>
+        <v>4142444033.478805</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1846250700936091</v>
+        <v>0.1974656853038612</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03671564554875158</v>
+        <v>0.04431793838889154</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3319725644.227164</v>
+        <v>3493330614.287325</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09071477950382699</v>
+        <v>0.07153315979542707</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03116247965083581</v>
+        <v>0.02508187736537801</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1737098009.455894</v>
+        <v>1986535494.100948</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1714465645853123</v>
+        <v>0.1506705686653416</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03181281278650909</v>
+        <v>0.04101084617217696</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2715898840.207126</v>
+        <v>3871758184.604413</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1464693003558493</v>
+        <v>0.1733897916347895</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04297697193077787</v>
+        <v>0.03500511514887288</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1518269470.004701</v>
+        <v>1106335843.934419</v>
       </c>
       <c r="F51" t="n">
-        <v>0.135198458717781</v>
+        <v>0.1897785309311998</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03746389730286369</v>
+        <v>0.03536667800802422</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3206923627.542241</v>
+        <v>5142491952.468433</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1205922676112347</v>
+        <v>0.09137304008198457</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05477266210643901</v>
+        <v>0.06171803109582089</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2659155350.135815</v>
+        <v>3670658207.172081</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1359292835817967</v>
+        <v>0.1412869473432795</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03438326004564923</v>
+        <v>0.03558464885070443</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4975951922.731663</v>
+        <v>3385309572.614263</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1486431757638389</v>
+        <v>0.1419009732202506</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03409417076335979</v>
+        <v>0.03399651913013697</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4049470319.930218</v>
+        <v>3974458384.150162</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1695004599083137</v>
+        <v>0.2023191444838132</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02983382342389185</v>
+        <v>0.03186417872421352</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1745124215.051374</v>
+        <v>1492647313.54417</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1558094943708436</v>
+        <v>0.144652864190761</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04232606535332738</v>
+        <v>0.03625986657970474</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4052777471.246739</v>
+        <v>4096067862.50357</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1415746362651237</v>
+        <v>0.1780375590684481</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0212903054611126</v>
+        <v>0.02309585902399178</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1476027247.364056</v>
+        <v>1242360259.907907</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1458072685631875</v>
+        <v>0.1944297728757461</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03190867605565675</v>
+        <v>0.03257991619449525</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3984412792.267241</v>
+        <v>3277025688.05324</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0850168209080214</v>
+        <v>0.1218530686992422</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04678610296965637</v>
+        <v>0.03055309611990446</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2605239750.718337</v>
+        <v>3109460273.75852</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1389921607212611</v>
+        <v>0.1462351898254828</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02455692679102011</v>
+        <v>0.02637751172331114</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2307470075.948429</v>
+        <v>2339777777.688448</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1086374146745815</v>
+        <v>0.170818917133415</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02105600347137565</v>
+        <v>0.02941252567578347</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1856587066.397809</v>
+        <v>1776717704.391891</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1934282976396744</v>
+        <v>0.1794364838844927</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04684429989005867</v>
+        <v>0.04653568977514826</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4675437434.172389</v>
+        <v>3872099200.662881</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08594607392937757</v>
+        <v>0.08944938327311594</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03623811261731633</v>
+        <v>0.04595972832259063</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5188547469.850248</v>
+        <v>4688207683.376415</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1553345583492103</v>
+        <v>0.15844053600606</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03508157881005787</v>
+        <v>0.03069303441229915</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4731754366.979686</v>
+        <v>5816294154.021878</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1641152474931871</v>
+        <v>0.1314060882460409</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02342309225050065</v>
+        <v>0.02158620933910198</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4210088738.513295</v>
+        <v>4582333653.033576</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1437085788354672</v>
+        <v>0.1102065937173655</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04364699016851613</v>
+        <v>0.03333376229245134</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3072697450.39976</v>
+        <v>3011486978.111331</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08729060508768637</v>
+        <v>0.06468553121956304</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03331693619609392</v>
+        <v>0.04142099587715735</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5435496537.292694</v>
+        <v>5370420512.129882</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1319878475360123</v>
+        <v>0.1111156096265713</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05113402238521902</v>
+        <v>0.0336321971672979</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2403209377.618107</v>
+        <v>1553684021.051167</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1208431566648769</v>
+        <v>0.1357785261908206</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05144966078499565</v>
+        <v>0.054416142963177</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3485372683.449523</v>
+        <v>2985676121.47478</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08900113320360389</v>
+        <v>0.06723352646862585</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03705119842748175</v>
+        <v>0.03534668931893589</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5002985162.383287</v>
+        <v>5559950741.283107</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1828464405730512</v>
+        <v>0.1207911366783378</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02828401322000599</v>
+        <v>0.02411403141111139</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1756638255.47118</v>
+        <v>1715818022.585822</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08428571126703989</v>
+        <v>0.08460175027059219</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04482193569558761</v>
+        <v>0.0330243397564795</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3521161896.386054</v>
+        <v>2926408998.936464</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07085669967720838</v>
+        <v>0.1050351029391862</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03657916727648053</v>
+        <v>0.03227882396701518</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2630074600.832473</v>
+        <v>3456776382.637657</v>
       </c>
       <c r="F74" t="n">
-        <v>0.185059430665083</v>
+        <v>0.1477765169767349</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03298646608727134</v>
+        <v>0.02792158888876532</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1546704982.882838</v>
+        <v>2370260225.514272</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1631707487853338</v>
+        <v>0.1442184798973501</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03455824439820828</v>
+        <v>0.02636193487784546</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4806173791.416805</v>
+        <v>5102402279.410941</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1013461508727647</v>
+        <v>0.09622980259515237</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02188954217065858</v>
+        <v>0.02666927334789704</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2290694276.25399</v>
+        <v>2122671513.849674</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1608805598397727</v>
+        <v>0.1566368320624183</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02438908347952768</v>
+        <v>0.02403080173768729</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3880846439.043924</v>
+        <v>4665212383.557022</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08309939014270014</v>
+        <v>0.1007071618927622</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05652805622974802</v>
+        <v>0.04060078321474546</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1462645407.844157</v>
+        <v>1757527110.706313</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1202345200805127</v>
+        <v>0.1610757006990307</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03223748092558035</v>
+        <v>0.0396265552546312</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5480527047.304926</v>
+        <v>4812948496.956124</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09306789506613813</v>
+        <v>0.07698743352297339</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02554175390105849</v>
+        <v>0.0272809363421866</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4080232616.050228</v>
+        <v>4727937738.36761</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09824408621963644</v>
+        <v>0.133698913241348</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03010386086474942</v>
+        <v>0.03246927492466435</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5187727244.277543</v>
+        <v>4528404862.318708</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1630403783128425</v>
+        <v>0.1454102414492153</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02433651911373629</v>
+        <v>0.02340137305231559</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1749077644.904637</v>
+        <v>2240040692.219045</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1043057727589625</v>
+        <v>0.1475165264173917</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02954882691110916</v>
+        <v>0.03532129664032891</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1811602884.199858</v>
+        <v>2448342868.360802</v>
       </c>
       <c r="F84" t="n">
-        <v>0.104181458323391</v>
+        <v>0.0754598202841839</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03696737348973237</v>
+        <v>0.04422664461570584</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3184700660.378591</v>
+        <v>2532124486.371724</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1204980434561623</v>
+        <v>0.1801851331645373</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04642021403246024</v>
+        <v>0.03514086028817099</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2765699852.765973</v>
+        <v>2523680935.748143</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1344066854803417</v>
+        <v>0.1116557608072109</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01798261955762288</v>
+        <v>0.02238660222185161</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1402312253.820326</v>
+        <v>1039065292.69486</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1512982378847866</v>
+        <v>0.1570719481511683</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0398251912912608</v>
+        <v>0.02908452360504776</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2692446746.465632</v>
+        <v>2917907577.804773</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1076843570705616</v>
+        <v>0.110313661748651</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02582432338836343</v>
+        <v>0.02637209764957136</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3313642787.768929</v>
+        <v>2295436780.131713</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09695635125964766</v>
+        <v>0.135867843669582</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03905042091724922</v>
+        <v>0.03970951881695836</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1821505561.541749</v>
+        <v>2014254464.099457</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1361951957572692</v>
+        <v>0.09873549703584331</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04481636957179274</v>
+        <v>0.04044641627016218</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1571855818.409517</v>
+        <v>1547668161.399422</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1342482337309447</v>
+        <v>0.1279103834641838</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05686306195185331</v>
+        <v>0.06193098409497733</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2221560848.917683</v>
+        <v>2875440393.521828</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09932894282031844</v>
+        <v>0.08735935894256805</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03766437711752289</v>
+        <v>0.03356192984144954</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3432167938.759919</v>
+        <v>3295586842.339289</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09592169750942098</v>
+        <v>0.1409855531579188</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04225382546674022</v>
+        <v>0.03504400158654448</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1571470722.005288</v>
+        <v>1582973909.524384</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1584284449286985</v>
+        <v>0.1250294903108632</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03241595892000192</v>
+        <v>0.03095433777599283</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2634690665.558889</v>
+        <v>3087180643.272701</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1287365348880055</v>
+        <v>0.1059092138126263</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04702173230890855</v>
+        <v>0.03443958834934163</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2355762041.523193</v>
+        <v>1872759788.078085</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1314382994627497</v>
+        <v>0.1046183764358531</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04347726778710403</v>
+        <v>0.04311998128651128</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4743210709.532794</v>
+        <v>3655251025.834822</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1758697720476137</v>
+        <v>0.1708173894278029</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02567710798632818</v>
+        <v>0.01945042094208757</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2875641380.039845</v>
+        <v>3919323376.745811</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09892858620963652</v>
+        <v>0.08502465299129883</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03055340139060043</v>
+        <v>0.03116432760314031</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2837371517.630789</v>
+        <v>3023263806.020107</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09137155097826993</v>
+        <v>0.13368272036736</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03155170879265734</v>
+        <v>0.02419368042113313</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4232506820.471111</v>
+        <v>2952373071.49731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1746656247121795</v>
+        <v>0.1225283426149208</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0281949240114195</v>
+        <v>0.02204488750988681</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2467996115.591834</v>
+        <v>2987235784.170438</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1396722437508563</v>
+        <v>0.1907757655821465</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05030664043897554</v>
+        <v>0.04911310875195451</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_178.xlsx
+++ b/output/fit_clients/fit_round_178.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2280751512.519202</v>
+        <v>2323964887.47403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07382742906413303</v>
+        <v>0.09475588420848807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03836970218766644</v>
+        <v>0.03744934398636878</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1965687547.126325</v>
+        <v>2096157486.328181</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1693222010952746</v>
+        <v>0.1379376460270359</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03590413110415066</v>
+        <v>0.04799330439941343</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4563823375.953453</v>
+        <v>3525033526.623768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1262589325853993</v>
+        <v>0.1353470609204289</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02578262760397529</v>
+        <v>0.02845325424585259</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>177</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100.1275220551982</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2851200783.668167</v>
+        <v>3659598732.307822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09830889690774818</v>
+        <v>0.08613314150552751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03446792348615908</v>
+        <v>0.0388043628900973</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>178</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2582324185.038816</v>
+        <v>2080888730.667126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1353005490735834</v>
+        <v>0.1328971227164825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0568094554470701</v>
+        <v>0.03545405255701761</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2728848825.406688</v>
+        <v>2847727116.993268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09151736546128499</v>
+        <v>0.09850834091302781</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04318636071343752</v>
+        <v>0.03804885024133669</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3584024655.588786</v>
+        <v>3191072198.301813</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1425433478653002</v>
+        <v>0.1583926817933141</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03135829025384808</v>
+        <v>0.02536118534014291</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1952513899.732389</v>
+        <v>2228058218.177601</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1554419977897378</v>
+        <v>0.146118944268302</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03457030049622493</v>
+        <v>0.02662114718685855</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5350375795.500453</v>
+        <v>5150094378.53163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1838617260314868</v>
+        <v>0.1667685261162825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0360282518226264</v>
+        <v>0.0514254598880229</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>163</v>
+      </c>
+      <c r="J10" t="n">
+        <v>178</v>
+      </c>
+      <c r="K10" t="n">
+        <v>139.2840999033561</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3639355522.022119</v>
+        <v>3806994205.919841</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1856501841709363</v>
+        <v>0.1568490580627079</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03286915652770845</v>
+        <v>0.04573915614643814</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>74</v>
+      </c>
+      <c r="J11" t="n">
+        <v>178</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3315095272.286728</v>
+        <v>2646796434.873536</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1589849515860565</v>
+        <v>0.1221952775416717</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03909665675251937</v>
+        <v>0.04541856561839372</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5159247709.76428</v>
+        <v>5161312128.190969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06460464174660947</v>
+        <v>0.09768786729075429</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02914032645454475</v>
+        <v>0.02118296040731219</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>177</v>
+      </c>
+      <c r="K13" t="n">
+        <v>127.5533824895255</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3246077158.662771</v>
+        <v>2579854899.927655</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1229093821067829</v>
+        <v>0.157078558866634</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03642901210517221</v>
+        <v>0.02787042355389369</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>173</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1277672802.803016</v>
+        <v>1764282959.823987</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1029044923863613</v>
+        <v>0.0888117618688626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04825303803487922</v>
+        <v>0.04792290294241986</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2459603753.590529</v>
+        <v>2221422562.667411</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09798321292520179</v>
+        <v>0.1074639458320371</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03495317273993205</v>
+        <v>0.04899502233678276</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4752553642.782314</v>
+        <v>5146755193.779149</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1413857602813949</v>
+        <v>0.1506623074337929</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04605785716866403</v>
+        <v>0.03862068354317637</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>178</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2571789343.306538</v>
+        <v>2863873235.737866</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1661414869879843</v>
+        <v>0.1529074016625674</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02522586976318746</v>
+        <v>0.02810708494767891</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1092005913.512497</v>
+        <v>1330456352.030979</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1871874484699644</v>
+        <v>0.127531173669919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01885885138858488</v>
+        <v>0.02399830922707412</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2258839575.078332</v>
+        <v>2814801280.617205</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1229107822523351</v>
+        <v>0.1438297999354185</v>
       </c>
       <c r="G20" t="n">
-        <v>0.030463415638884</v>
+        <v>0.02988282218006724</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2225723606.951339</v>
+        <v>2658460375.412493</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06882943842632519</v>
+        <v>0.09559246570190089</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03883507511160144</v>
+        <v>0.03636671910230117</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2702400728.660247</v>
+        <v>2595586909.006963</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09152886501737954</v>
+        <v>0.1351133125711542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03717873851738464</v>
+        <v>0.0544705380932549</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>46</v>
+      </c>
+      <c r="J22" t="n">
+        <v>177</v>
+      </c>
+      <c r="K22" t="n">
+        <v>49.93589360376626</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>985462188.6210054</v>
+        <v>1524577777.621203</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1305679145307415</v>
+        <v>0.1153982409179487</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0354962977296617</v>
+        <v>0.03898483129622346</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3293833771.738503</v>
+        <v>2583063958.110576</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1073628404864693</v>
+        <v>0.1011228238154133</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03274804444928871</v>
+        <v>0.02694748921698671</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>54</v>
+      </c>
+      <c r="J24" t="n">
+        <v>177</v>
+      </c>
+      <c r="K24" t="n">
+        <v>48.84668112693727</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1213308840.26632</v>
+        <v>1123790924.260922</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09780364190313648</v>
+        <v>0.1067860567101403</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02077197842187167</v>
+        <v>0.01881154382681323</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>987628433.115643</v>
+        <v>936245626.0613009</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08963065856433135</v>
+        <v>0.1017280406570347</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03174963896122353</v>
+        <v>0.02686292149395331</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4247158135.574932</v>
+        <v>3034856556.912688</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1127808695314439</v>
+        <v>0.155781647658064</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01677648255577214</v>
+        <v>0.01866822249878442</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>71</v>
+      </c>
+      <c r="J27" t="n">
+        <v>176</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2600594263.040477</v>
+        <v>2924190570.248396</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09600893857874866</v>
+        <v>0.1140863497963902</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04825510442197865</v>
+        <v>0.03286044445331223</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>175</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4370079376.734318</v>
+        <v>5808539514.610352</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1450050387809874</v>
+        <v>0.1042888040464803</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02955570621585246</v>
+        <v>0.04001926716223941</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>167</v>
+      </c>
+      <c r="J29" t="n">
+        <v>178</v>
+      </c>
+      <c r="K29" t="n">
+        <v>147.7798728055607</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1559918891.185485</v>
+        <v>1800374078.707205</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1296023270290426</v>
+        <v>0.09609444340560866</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04014682837277988</v>
+        <v>0.03205405354903233</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>903856131.0981646</v>
+        <v>1375165993.435569</v>
       </c>
       <c r="F31" t="n">
-        <v>0.106055601035426</v>
+        <v>0.08407470307131704</v>
       </c>
       <c r="G31" t="n">
-        <v>0.032163602627099</v>
+        <v>0.03570171205154835</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1205234160.220099</v>
+        <v>1220649623.240695</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07964976722733851</v>
+        <v>0.09209616637519728</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03755561999784722</v>
+        <v>0.03238039905311269</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1938406101.768076</v>
+        <v>2580608625.874846</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1535271961192969</v>
+        <v>0.1363386517200869</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03938944701910551</v>
+        <v>0.0498856080278757</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>951658343.2890942</v>
+        <v>1240183966.670873</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1095216465574736</v>
+        <v>0.07359232908692138</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01883420309504381</v>
+        <v>0.0243141772979999</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1024532724.030022</v>
+        <v>885854177.2408831</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1179609206977799</v>
+        <v>0.1061798000296501</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0354349947017539</v>
+        <v>0.02993433892569161</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2387727422.282237</v>
+        <v>3232791095.010963</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1214657326821113</v>
+        <v>0.1517223585248628</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02239896435198464</v>
+        <v>0.02127603555723463</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1780654630.538169</v>
+        <v>2796402641.10092</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1067513866946067</v>
+        <v>0.1086796344903594</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02774245039290906</v>
+        <v>0.02790768630652848</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1601535365.238685</v>
+        <v>1693335334.17174</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07537900549735303</v>
+        <v>0.09441253491507243</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02713883557745194</v>
+        <v>0.03555918812605341</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1968077083.347359</v>
+        <v>2101898920.747827</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1833016676802221</v>
+        <v>0.1604503899713877</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03203691839645967</v>
+        <v>0.02570357809137046</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1107781970.292194</v>
+        <v>1558731082.86511</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1070862530980058</v>
+        <v>0.1158657897680246</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03629849969961909</v>
+        <v>0.03748928968177396</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2256739321.308713</v>
+        <v>2119444813.876163</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1361988863689111</v>
+        <v>0.1667481650775738</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04605317017953415</v>
+        <v>0.03275156063497275</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2934073008.722918</v>
+        <v>3961603738.394413</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07922333165641807</v>
+        <v>0.0800161755358104</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03041679318412285</v>
+        <v>0.04639469706910621</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>67</v>
+      </c>
+      <c r="J42" t="n">
+        <v>178</v>
+      </c>
+      <c r="K42" t="n">
+        <v>132.1276034184611</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2902443034.713708</v>
+        <v>2033166251.512095</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1855630882586944</v>
+        <v>0.1664081101257582</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02296316003926115</v>
+        <v>0.02258112701213241</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2001891738.031965</v>
+        <v>1953586335.31007</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09569949490604138</v>
+        <v>0.09378131562500905</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02286983394719586</v>
+        <v>0.02825634378715841</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2064670757.608538</v>
+        <v>2444843675.528602</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1463899026976001</v>
+        <v>0.1178220238082942</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0550190513663411</v>
+        <v>0.04155622143730252</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3579605225.753412</v>
+        <v>4664633600.013661</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1442573065410687</v>
+        <v>0.1175084638276389</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04438404973261033</v>
+        <v>0.05896593934470025</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>101</v>
+      </c>
+      <c r="J46" t="n">
+        <v>177</v>
+      </c>
+      <c r="K46" t="n">
+        <v>128.2210117668</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4142444033.478805</v>
+        <v>5046950199.679189</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1974656853038612</v>
+        <v>0.1710879873639295</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04431793838889154</v>
+        <v>0.0394222793567159</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>79</v>
+      </c>
+      <c r="J47" t="n">
+        <v>178</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3493330614.287325</v>
+        <v>2993587133.455051</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07153315979542707</v>
+        <v>0.08769752546116255</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02508187736537801</v>
+        <v>0.0269041162710885</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>82</v>
+      </c>
+      <c r="J48" t="n">
+        <v>177</v>
+      </c>
+      <c r="K48" t="n">
+        <v>75.02751718606888</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1986535494.100948</v>
+        <v>1295140910.20245</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1506705686653416</v>
+        <v>0.1186078546194368</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04101084617217696</v>
+        <v>0.03367260925156544</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3871758184.604413</v>
+        <v>2659048786.625514</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1733897916347895</v>
+        <v>0.1496293345031112</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03500511514887288</v>
+        <v>0.03252885142666405</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>175</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1106335843.934419</v>
+        <v>1536128955.631072</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1897785309311998</v>
+        <v>0.1827790978914089</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03536667800802422</v>
+        <v>0.0360662655689631</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5142491952.468433</v>
+        <v>4535485263.838634</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09137304008198457</v>
+        <v>0.119772671082281</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06171803109582089</v>
+        <v>0.05868645734161517</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>126</v>
+      </c>
+      <c r="J52" t="n">
+        <v>178</v>
+      </c>
+      <c r="K52" t="n">
+        <v>128.9346481973799</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3670658207.172081</v>
+        <v>3649060436.781096</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1412869473432795</v>
+        <v>0.150453257282297</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03558464885070443</v>
+        <v>0.02942792179155358</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3385309572.614263</v>
+        <v>4563506244.311555</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1419009732202506</v>
+        <v>0.1148901936234254</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03399651913013697</v>
+        <v>0.05190151378512207</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>89</v>
+      </c>
+      <c r="J54" t="n">
+        <v>178</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3974458384.150162</v>
+        <v>4133900224.922215</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2023191444838132</v>
+        <v>0.1976106950854745</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03186417872421352</v>
+        <v>0.02410942337083732</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>80</v>
+      </c>
+      <c r="J55" t="n">
+        <v>178</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1492647313.54417</v>
+        <v>1680393412.336212</v>
       </c>
       <c r="F56" t="n">
-        <v>0.144652864190761</v>
+        <v>0.1418032896003513</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03625986657970474</v>
+        <v>0.055804754808117</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4096067862.50357</v>
+        <v>3140579226.691725</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1780375590684481</v>
+        <v>0.1306940253128235</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02309585902399178</v>
+        <v>0.01808776312982065</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>72</v>
+      </c>
+      <c r="J57" t="n">
+        <v>177</v>
+      </c>
+      <c r="K57" t="n">
+        <v>78.73096387206481</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1242360259.907907</v>
+        <v>1503815389.860833</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1944297728757461</v>
+        <v>0.1266869709933628</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03257991619449525</v>
+        <v>0.02572137928030385</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3277025688.05324</v>
+        <v>5053164966.83053</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1218530686992422</v>
+        <v>0.09095082556998703</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03055309611990446</v>
+        <v>0.03949886338808142</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>85</v>
+      </c>
+      <c r="J59" t="n">
+        <v>178</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3109460273.75852</v>
+        <v>3190963987.673371</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1462351898254828</v>
+        <v>0.202424575482401</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02637751172331114</v>
+        <v>0.02850083610407624</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2339777777.688448</v>
+        <v>3199735826.938762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.170818917133415</v>
+        <v>0.1205334490489414</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02941252567578347</v>
+        <v>0.03299522337209938</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1776717704.391891</v>
+        <v>1467709555.143215</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1794364838844927</v>
+        <v>0.1854136772176177</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04653568977514826</v>
+        <v>0.0362061837403486</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3872099200.662881</v>
+        <v>5034830469.21254</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08944938327311594</v>
+        <v>0.07397094294300813</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04595972832259063</v>
+        <v>0.04635864314022767</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>87</v>
+      </c>
+      <c r="J63" t="n">
+        <v>178</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4688207683.376415</v>
+        <v>3454332376.693108</v>
       </c>
       <c r="F64" t="n">
-        <v>0.15844053600606</v>
+        <v>0.1321733070884342</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03069303441229915</v>
+        <v>0.03321414216267308</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>88</v>
+      </c>
+      <c r="J64" t="n">
+        <v>177</v>
+      </c>
+      <c r="K64" t="n">
+        <v>92.84659157876635</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5816294154.021878</v>
+        <v>3761920561.363647</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1314060882460409</v>
+        <v>0.1230983261188853</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02158620933910198</v>
+        <v>0.02821903051146183</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>145</v>
+      </c>
+      <c r="J65" t="n">
+        <v>177</v>
+      </c>
+      <c r="K65" t="n">
+        <v>118.2409266263475</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4582333653.033576</v>
+        <v>3817815280.067255</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1102065937173655</v>
+        <v>0.1186648025984952</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03333376229245134</v>
+        <v>0.04198653774539324</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>87</v>
+      </c>
+      <c r="J66" t="n">
+        <v>178</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3011486978.111331</v>
+        <v>3439267916.585874</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06468553121956304</v>
+        <v>0.0685231335520738</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04142099587715735</v>
+        <v>0.04057965722221071</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5370420512.129882</v>
+        <v>4029125899.656835</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1111156096265713</v>
+        <v>0.1435251816351214</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0336321971672979</v>
+        <v>0.04144656627214918</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>89</v>
+      </c>
+      <c r="J68" t="n">
+        <v>178</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1553684021.051167</v>
+        <v>2007272815.107567</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1357785261908206</v>
+        <v>0.1290130932026634</v>
       </c>
       <c r="G69" t="n">
-        <v>0.054416142963177</v>
+        <v>0.04558551469861617</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2985676121.47478</v>
+        <v>2567081280.815526</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06723352646862585</v>
+        <v>0.06784240449962158</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03534668931893589</v>
+        <v>0.03240704801286169</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5559950741.283107</v>
+        <v>4587272407.076975</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1207911366783378</v>
+        <v>0.1494174497943093</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02411403141111139</v>
+        <v>0.02931918326640272</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>140</v>
+      </c>
+      <c r="J71" t="n">
+        <v>178</v>
+      </c>
+      <c r="K71" t="n">
+        <v>130.0077868958419</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1715818022.585822</v>
+        <v>1455515590.408614</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08460175027059219</v>
+        <v>0.07826684513225603</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0330243397564795</v>
+        <v>0.05088312319902136</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2926408998.936464</v>
+        <v>2631946332.972545</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1050351029391862</v>
+        <v>0.07100927231909801</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03227882396701518</v>
+        <v>0.03591618889012645</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3456776382.637657</v>
+        <v>3724191890.089732</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1477765169767349</v>
+        <v>0.1641447186910141</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02792158888876532</v>
+        <v>0.03233472863601625</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>52</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2370260225.514272</v>
+        <v>2299623817.240174</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1442184798973501</v>
+        <v>0.1594727908335831</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02636193487784546</v>
+        <v>0.03640437686674949</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5102402279.410941</v>
+        <v>3327025362.095294</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09622980259515237</v>
+        <v>0.1105085565368039</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02666927334789704</v>
+        <v>0.02166774393965726</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>81</v>
+      </c>
+      <c r="J76" t="n">
+        <v>177</v>
+      </c>
+      <c r="K76" t="n">
+        <v>75.77692965681216</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2122671513.849674</v>
+        <v>2040854231.343107</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1566368320624183</v>
+        <v>0.1820182569667321</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02403080173768729</v>
+        <v>0.02017158661905906</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4665212383.557022</v>
+        <v>3867447868.867477</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1007071618927622</v>
+        <v>0.1318480651006935</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04060078321474546</v>
+        <v>0.04190988270808411</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>90</v>
+      </c>
+      <c r="J78" t="n">
+        <v>178</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1757527110.706313</v>
+        <v>1853296588.643476</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1610757006990307</v>
+        <v>0.1748457772134117</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0396265552546312</v>
+        <v>0.03733703126796781</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4812948496.956124</v>
+        <v>5133454699.55362</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07698743352297339</v>
+        <v>0.109893121529072</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0272809363421866</v>
+        <v>0.02796158335268401</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>87</v>
+      </c>
+      <c r="J80" t="n">
+        <v>177</v>
+      </c>
+      <c r="K80" t="n">
+        <v>94.32845176910961</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4727937738.36761</v>
+        <v>4182182172.018822</v>
       </c>
       <c r="F81" t="n">
-        <v>0.133698913241348</v>
+        <v>0.1285666873738509</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03246927492466435</v>
+        <v>0.03243583461071343</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>82</v>
+      </c>
+      <c r="J81" t="n">
+        <v>177</v>
+      </c>
+      <c r="K81" t="n">
+        <v>111.0641008356131</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4528404862.318708</v>
+        <v>5623550790.096719</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1454102414492153</v>
+        <v>0.1740354503510369</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02340137305231559</v>
+        <v>0.0217784676394475</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>132</v>
+      </c>
+      <c r="J82" t="n">
+        <v>178</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2240040692.219045</v>
+        <v>2088333688.95927</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475165264173917</v>
+        <v>0.1566739143556054</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03532129664032891</v>
+        <v>0.04226544554760267</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2448342868.360802</v>
+        <v>1773054711.320539</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0754598202841839</v>
+        <v>0.07333004388659201</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04422664461570584</v>
+        <v>0.05068205779879616</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2532124486.371724</v>
+        <v>2425791121.573688</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1801851331645373</v>
+        <v>0.1697615029956247</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03514086028817099</v>
+        <v>0.04223703934039639</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2523680935.748143</v>
+        <v>1808979325.265465</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1116557608072109</v>
+        <v>0.1334165315540785</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02238660222185161</v>
+        <v>0.02479849155195808</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1039065292.69486</v>
+        <v>1311747721.126344</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1570719481511683</v>
+        <v>0.1554659771026451</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02908452360504776</v>
+        <v>0.03532834690740316</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2917907577.804773</v>
+        <v>3741426067.447954</v>
       </c>
       <c r="F88" t="n">
-        <v>0.110313661748651</v>
+        <v>0.1544503265464916</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02637209764957136</v>
+        <v>0.03178648612545182</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24</v>
+      </c>
+      <c r="J88" t="n">
+        <v>178</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2295436780.131713</v>
+        <v>2244722228.996072</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135867843669582</v>
+        <v>0.1030866595100297</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03970951881695836</v>
+        <v>0.03983225282244059</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2014254464.099457</v>
+        <v>1362688684.840853</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09873549703584331</v>
+        <v>0.1297894915862713</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04044641627016218</v>
+        <v>0.04708164942435432</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1547668161.399422</v>
+        <v>1334845423.573895</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1279103834641838</v>
+        <v>0.1537640976309616</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06193098409497733</v>
+        <v>0.04930636454570092</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2875440393.521828</v>
+        <v>2218649480.913745</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08735935894256805</v>
+        <v>0.09631227834655981</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03356192984144954</v>
+        <v>0.04726244402833531</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3295586842.339289</v>
+        <v>4263383906.471736</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1409855531579188</v>
+        <v>0.1245197366637005</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03504400158654448</v>
+        <v>0.04653098923309896</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>80</v>
+      </c>
+      <c r="J93" t="n">
+        <v>177</v>
+      </c>
+      <c r="K93" t="n">
+        <v>121.9147758628768</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1582973909.524384</v>
+        <v>1973013538.926332</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1250294903108632</v>
+        <v>0.1672335747461549</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03095433777599283</v>
+        <v>0.03593549069351892</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3087180643.272701</v>
+        <v>2443376950.871205</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1059092138126263</v>
+        <v>0.1191788906790871</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03443958834934163</v>
+        <v>0.05083949844417003</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1872759788.078085</v>
+        <v>1467613052.772111</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1046183764358531</v>
+        <v>0.08958322489969806</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04311998128651128</v>
+        <v>0.03572267227051658</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3655251025.834822</v>
+        <v>4680289173.177467</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1708173894278029</v>
+        <v>0.1193871204276305</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01945042094208757</v>
+        <v>0.02212195245733344</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>86</v>
+      </c>
+      <c r="J97" t="n">
+        <v>177</v>
+      </c>
+      <c r="K97" t="n">
+        <v>124.290323278578</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3919323376.745811</v>
+        <v>2780827772.635592</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08502465299129883</v>
+        <v>0.1146671715901279</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03116432760314031</v>
+        <v>0.03217469903289642</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>43</v>
+      </c>
+      <c r="J98" t="n">
+        <v>176</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3023263806.020107</v>
+        <v>2480543889.002923</v>
       </c>
       <c r="F99" t="n">
-        <v>0.13368272036736</v>
+        <v>0.1159121648677542</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02419368042113313</v>
+        <v>0.02418599878596469</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2952373071.49731</v>
+        <v>3584121598.428361</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1225283426149208</v>
+        <v>0.1651032501297679</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02204488750988681</v>
+        <v>0.02517374890078255</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>74</v>
+      </c>
+      <c r="J100" t="n">
+        <v>177</v>
+      </c>
+      <c r="K100" t="n">
+        <v>99.61838030062981</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2987235784.170438</v>
+        <v>3541105093.664892</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1907757655821465</v>
+        <v>0.1801177302379162</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04911310875195451</v>
+        <v>0.05140110106365801</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>176</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
